--- a/Output/2023/116-17.18.3-1829-SG_STT_NSDSFDOTHR-1132.xlsx
+++ b/Output/2023/116-17.18.3-1829-SG_STT_NSDSFDOTHR-1132.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1783,9 +1783,6 @@
   <si>
     <t xml:space="preserve">7</t>
   </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
 </sst>
 </file>
 
@@ -3586,7 +3583,7 @@
         <v>2022</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
@@ -17086,7 +17083,7 @@
         <v>2021</v>
       </c>
       <c r="G300" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H300" t="n">
         <v>2021</v>
@@ -17736,7 +17733,7 @@
         <v>2021</v>
       </c>
       <c r="G313" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H313" t="n">
         <v>2021</v>
@@ -17786,7 +17783,7 @@
         <v>2021</v>
       </c>
       <c r="G314" t="s">
-        <v>589</v>
+        <v>42</v>
       </c>
       <c r="H314" t="n">
         <v>2021</v>
@@ -17936,7 +17933,7 @@
         <v>2021</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H317" t="n">
         <v>2021</v>
@@ -31236,7 +31233,7 @@
         <v>2020</v>
       </c>
       <c r="G583" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H583" t="n">
         <v>2020</v>
@@ -31886,7 +31883,7 @@
         <v>2020</v>
       </c>
       <c r="G596" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H596" t="n">
         <v>2020</v>
@@ -31936,7 +31933,7 @@
         <v>2020</v>
       </c>
       <c r="G597" t="s">
-        <v>589</v>
+        <v>42</v>
       </c>
       <c r="H597" t="n">
         <v>2020</v>
@@ -32086,7 +32083,7 @@
         <v>2020</v>
       </c>
       <c r="G600" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H600" t="n">
         <v>2020</v>
@@ -44936,7 +44933,7 @@
         <v>2019</v>
       </c>
       <c r="G857" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H857" t="n">
         <v>2019</v>
@@ -45386,7 +45383,7 @@
         <v>2019</v>
       </c>
       <c r="G866" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H866" t="n">
         <v>2019</v>
@@ -46036,7 +46033,7 @@
         <v>2019</v>
       </c>
       <c r="G879" t="s">
-        <v>587</v>
+        <v>175</v>
       </c>
       <c r="H879" t="n">
         <v>2019</v>
@@ -46086,7 +46083,7 @@
         <v>2019</v>
       </c>
       <c r="G880" t="s">
-        <v>589</v>
+        <v>42</v>
       </c>
       <c r="H880" t="n">
         <v>2019</v>
@@ -46236,7 +46233,7 @@
         <v>2019</v>
       </c>
       <c r="G883" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H883" t="n">
         <v>2019</v>

--- a/Output/2023/116-17.18.3-1829-SG_STT_NSDSFDOTHR-1132.xlsx
+++ b/Output/2023/116-17.18.3-1829-SG_STT_NSDSFDOTHR-1132.xlsx
@@ -2233,7 +2233,7 @@
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
         <v>2022</v>
@@ -2283,7 +2283,7 @@
         <v>2022</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
         <v>2022</v>
@@ -2383,7 +2383,7 @@
         <v>2022</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
@@ -2483,7 +2483,7 @@
         <v>2022</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
@@ -2583,7 +2583,7 @@
         <v>2022</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
@@ -2633,7 +2633,7 @@
         <v>2022</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
@@ -2683,7 +2683,7 @@
         <v>2022</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
@@ -2733,7 +2733,7 @@
         <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
@@ -2783,7 +2783,7 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
@@ -2833,7 +2833,7 @@
         <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
@@ -2933,7 +2933,7 @@
         <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
@@ -2983,7 +2983,7 @@
         <v>2022</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
@@ -3033,7 +3033,7 @@
         <v>2022</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
@@ -3083,7 +3083,7 @@
         <v>2022</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
@@ -3133,7 +3133,7 @@
         <v>2022</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
         <v>2022</v>
@@ -3233,7 +3233,7 @@
         <v>2022</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
@@ -3383,7 +3383,7 @@
         <v>2022</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H26" t="n">
         <v>2022</v>
@@ -3633,7 +3633,7 @@
         <v>2022</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
@@ -3783,7 +3783,7 @@
         <v>2022</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
@@ -3833,7 +3833,7 @@
         <v>2022</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
         <v>2022</v>
@@ -3933,7 +3933,7 @@
         <v>2022</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H37" t="n">
         <v>2022</v>
@@ -16483,7 +16483,7 @@
         <v>2021</v>
       </c>
       <c r="G288" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H288" t="n">
         <v>2021</v>
@@ -16583,7 +16583,7 @@
         <v>2021</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H290" t="n">
         <v>2021</v>
@@ -16633,7 +16633,7 @@
         <v>2021</v>
       </c>
       <c r="G291" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H291" t="n">
         <v>2021</v>
@@ -16683,7 +16683,7 @@
         <v>2021</v>
       </c>
       <c r="G292" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H292" t="n">
         <v>2021</v>
@@ -16783,7 +16783,7 @@
         <v>2021</v>
       </c>
       <c r="G294" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H294" t="n">
         <v>2021</v>
@@ -16883,7 +16883,7 @@
         <v>2021</v>
       </c>
       <c r="G296" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H296" t="n">
         <v>2021</v>
@@ -16933,7 +16933,7 @@
         <v>2021</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H297" t="n">
         <v>2021</v>
@@ -16983,7 +16983,7 @@
         <v>2021</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H298" t="n">
         <v>2021</v>
@@ -17033,7 +17033,7 @@
         <v>2021</v>
       </c>
       <c r="G299" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H299" t="n">
         <v>2021</v>
@@ -17133,7 +17133,7 @@
         <v>2021</v>
       </c>
       <c r="G301" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H301" t="n">
         <v>2021</v>
@@ -17183,7 +17183,7 @@
         <v>2021</v>
       </c>
       <c r="G302" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H302" t="n">
         <v>2021</v>
@@ -17433,7 +17433,7 @@
         <v>2021</v>
       </c>
       <c r="G307" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H307" t="n">
         <v>2021</v>
@@ -17683,7 +17683,7 @@
         <v>2021</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H312" t="n">
         <v>2021</v>
@@ -18033,7 +18033,7 @@
         <v>2021</v>
       </c>
       <c r="G319" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H319" t="n">
         <v>2021</v>
@@ -18083,7 +18083,7 @@
         <v>2021</v>
       </c>
       <c r="G320" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H320" t="n">
         <v>2021</v>
@@ -30633,7 +30633,7 @@
         <v>2020</v>
       </c>
       <c r="G571" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H571" t="n">
         <v>2020</v>
@@ -30733,7 +30733,7 @@
         <v>2020</v>
       </c>
       <c r="G573" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H573" t="n">
         <v>2020</v>
@@ -30783,7 +30783,7 @@
         <v>2020</v>
       </c>
       <c r="G574" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H574" t="n">
         <v>2020</v>
@@ -30833,7 +30833,7 @@
         <v>2020</v>
       </c>
       <c r="G575" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H575" t="n">
         <v>2020</v>
@@ -30933,7 +30933,7 @@
         <v>2020</v>
       </c>
       <c r="G577" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H577" t="n">
         <v>2020</v>
@@ -31033,7 +31033,7 @@
         <v>2020</v>
       </c>
       <c r="G579" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H579" t="n">
         <v>2020</v>
@@ -31083,7 +31083,7 @@
         <v>2020</v>
       </c>
       <c r="G580" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H580" t="n">
         <v>2020</v>
@@ -31133,7 +31133,7 @@
         <v>2020</v>
       </c>
       <c r="G581" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H581" t="n">
         <v>2020</v>
@@ -31183,7 +31183,7 @@
         <v>2020</v>
       </c>
       <c r="G582" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H582" t="n">
         <v>2020</v>
@@ -31283,7 +31283,7 @@
         <v>2020</v>
       </c>
       <c r="G584" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H584" t="n">
         <v>2020</v>
@@ -31333,7 +31333,7 @@
         <v>2020</v>
       </c>
       <c r="G585" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H585" t="n">
         <v>2020</v>
@@ -31583,7 +31583,7 @@
         <v>2020</v>
       </c>
       <c r="G590" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H590" t="n">
         <v>2020</v>
@@ -31833,7 +31833,7 @@
         <v>2020</v>
       </c>
       <c r="G595" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H595" t="n">
         <v>2020</v>
@@ -32183,7 +32183,7 @@
         <v>2020</v>
       </c>
       <c r="G602" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H602" t="n">
         <v>2020</v>
@@ -32233,7 +32233,7 @@
         <v>2020</v>
       </c>
       <c r="G603" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H603" t="n">
         <v>2020</v>
@@ -44883,7 +44883,7 @@
         <v>2019</v>
       </c>
       <c r="G856" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H856" t="n">
         <v>2019</v>
@@ -45083,7 +45083,7 @@
         <v>2019</v>
       </c>
       <c r="G860" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H860" t="n">
         <v>2019</v>
@@ -45183,7 +45183,7 @@
         <v>2019</v>
       </c>
       <c r="G862" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H862" t="n">
         <v>2019</v>
@@ -45233,7 +45233,7 @@
         <v>2019</v>
       </c>
       <c r="G863" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H863" t="n">
         <v>2019</v>
@@ -45283,7 +45283,7 @@
         <v>2019</v>
       </c>
       <c r="G864" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H864" t="n">
         <v>2019</v>
@@ -45333,7 +45333,7 @@
         <v>2019</v>
       </c>
       <c r="G865" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H865" t="n">
         <v>2019</v>
@@ -45433,7 +45433,7 @@
         <v>2019</v>
       </c>
       <c r="G867" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H867" t="n">
         <v>2019</v>
@@ -45483,7 +45483,7 @@
         <v>2019</v>
       </c>
       <c r="G868" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H868" t="n">
         <v>2019</v>
@@ -45733,7 +45733,7 @@
         <v>2019</v>
       </c>
       <c r="G873" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H873" t="n">
         <v>2019</v>
@@ -46383,7 +46383,7 @@
         <v>2019</v>
       </c>
       <c r="G886" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H886" t="n">
         <v>2019</v>
